--- a/Results/Metrics/Vergleich_metriken_all.xlsx
+++ b/Results/Metrics/Vergleich_metriken_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e6b024c9cb94357/Dokumente/GitHub/NLP_Project/Results/Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="11_AD4DB114E441178AC67DF4F78ED6FF46693EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B83A1A7-8B49-4F23-A46E-8FC66B4281C1}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="11_AD4DB114E441178AC67DF4F78ED6FF46693EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B84EA21E-45A3-4521-8E4A-50DB80BCE380}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="15990" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
   <si>
     <t>balaced_log_reg</t>
   </si>
@@ -93,7 +93,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -135,8 +135,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -190,7 +190,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-AT"/>
-              <a:t>Precision</a:t>
+              <a:t>F1-Score</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -275,11 +275,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$23</c:f>
+              <c:f>Tabelle1!$B$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>balaced_log_reg</c:v>
+                  <c:v>micro avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -297,48 +297,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$21:$E$22</c:f>
+              <c:f>Tabelle1!$A$54:$A$59</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>micro avg</c:v>
+                  <c:v>balaced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>macro avg</c:v>
+                  <c:v>reduced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>weighted avg</c:v>
+                  <c:v>balanced_NB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>samples avg</c:v>
+                  <c:v>reduced_NB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>balaced_tf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>reduced_tf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$23:$E$23</c:f>
+              <c:f>Tabelle1!$B$54:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.79910394265232898</c:v>
+                  <c:v>0.393487469114013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74498784300353005</c:v>
+                  <c:v>0.38936442485425798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.775315429952251</c:v>
+                  <c:v>0.45197804710724898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64552021885953603</c:v>
+                  <c:v>0.257704021276774</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.63075574732016404</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.52839363520377403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-64E5-4021-92CD-D099FF0D7614}"/>
+              <c16:uniqueId val="{00000000-1421-4BE3-9DE5-6653759CC116}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -347,11 +359,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$24</c:f>
+              <c:f>Tabelle1!$C$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reduced_log_reg</c:v>
+                  <c:v>macro avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -369,48 +381,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$21:$E$22</c:f>
+              <c:f>Tabelle1!$A$54:$A$59</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>micro avg</c:v>
+                  <c:v>balaced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>macro avg</c:v>
+                  <c:v>reduced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>weighted avg</c:v>
+                  <c:v>balanced_NB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>samples avg</c:v>
+                  <c:v>reduced_NB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>balaced_tf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>reduced_tf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$24:$E$24</c:f>
+              <c:f>Tabelle1!$C$54:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.71558482282847202</c:v>
+                  <c:v>0.212804148195917</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46623442422217198</c:v>
+                  <c:v>0.14867598170065399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63720112496304304</c:v>
+                  <c:v>0.43001497896617202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55164259927797799</c:v>
+                  <c:v>0.14421012732000199</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.53239532141676704</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.27874245493841798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-64E5-4021-92CD-D099FF0D7614}"/>
+              <c16:uniqueId val="{00000001-1421-4BE3-9DE5-6653759CC116}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -419,11 +443,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$25</c:f>
+              <c:f>Tabelle1!$D$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>balanced_NB</c:v>
+                  <c:v>weighted avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -441,48 +465,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$21:$E$22</c:f>
+              <c:f>Tabelle1!$A$54:$A$59</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>micro avg</c:v>
+                  <c:v>balaced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>macro avg</c:v>
+                  <c:v>reduced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>weighted avg</c:v>
+                  <c:v>balanced_NB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>samples avg</c:v>
+                  <c:v>reduced_NB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>balaced_tf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>reduced_tf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$25:$E$25</c:f>
+              <c:f>Tabelle1!$D$54:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.33507572332730501</c:v>
+                  <c:v>0.34157181111608698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.334693202380699</c:v>
+                  <c:v>0.34050192481095098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36678592037674201</c:v>
+                  <c:v>0.46798473398559698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41364326224620801</c:v>
+                  <c:v>0.33341196986187799</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.60382443890448401</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.48340194145716697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-64E5-4021-92CD-D099FF0D7614}"/>
+              <c16:uniqueId val="{00000002-1421-4BE3-9DE5-6653759CC116}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -491,11 +527,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$26</c:f>
+              <c:f>Tabelle1!$E$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reduced_NB</c:v>
+                  <c:v>samples avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -513,192 +549,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$21:$E$22</c:f>
+              <c:f>Tabelle1!$A$54:$A$59</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>micro avg</c:v>
+                  <c:v>balaced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>macro avg</c:v>
+                  <c:v>reduced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>weighted avg</c:v>
+                  <c:v>balanced_NB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>samples avg</c:v>
+                  <c:v>reduced_NB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>balaced_tf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>reduced_tf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$26:$E$26</c:f>
+              <c:f>Tabelle1!$E$54:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16409346852862899</c:v>
+                  <c:v>0.34669272244517702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5904254834224295E-2</c:v>
+                  <c:v>0.36099806464427397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25091001725317202</c:v>
+                  <c:v>0.45915527803859102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22817826275267999</c:v>
+                  <c:v>0.29040890809071701</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.58775677642222302</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.51337311238033201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-64E5-4021-92CD-D099FF0D7614}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>balaced_tf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$B$21:$E$22</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>micro avg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>macro avg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>weighted avg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>samples avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$B$27:$E$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-64E5-4021-92CD-D099FF0D7614}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>reduced_tf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$B$21:$E$22</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>micro avg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>macro avg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>weighted avg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>samples avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$B$28:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-64E5-4021-92CD-D099FF0D7614}"/>
+              <c16:uniqueId val="{00000003-1421-4BE3-9DE5-6653759CC116}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -712,12 +616,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="306833216"/>
-        <c:axId val="490999536"/>
+        <c:axId val="558399648"/>
+        <c:axId val="550950224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="306833216"/>
+        <c:axId val="558399648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,7 +658,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490999536"/>
+        <c:crossAx val="550950224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -762,7 +666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="490999536"/>
+        <c:axId val="550950224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +717,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306833216"/>
+        <c:crossAx val="558399648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1020,11 +924,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$38</c:f>
+              <c:f>Tabelle1!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>balaced_log_reg</c:v>
+                  <c:v>micro avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1042,48 +946,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$36:$E$37</c:f>
+              <c:f>Tabelle1!$A$38:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>micro avg</c:v>
+                  <c:v>balaced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>macro avg</c:v>
+                  <c:v>reduced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>weighted avg</c:v>
+                  <c:v>balanced_NB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>samples avg</c:v>
+                  <c:v>reduced_NB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>balaced_tf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>reduced_tf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$38:$E$38</c:f>
+              <c:f>Tabelle1!$B$38:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.26100444860688299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14168905675822399</c:v>
+                  <c:v>0.26744276896632502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26100444860688299</c:v>
+                  <c:v>0.69415827675017505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26183956962361599</c:v>
+                  <c:v>0.59996874755840301</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.54764692109576196</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.42874443315883998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6F7-4EB9-ABD7-FD81A2D4B69A}"/>
+              <c16:uniqueId val="{00000000-ED2E-49E3-AE51-55148EC3DD03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1092,11 +1008,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$39</c:f>
+              <c:f>Tabelle1!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reduced_log_reg</c:v>
+                  <c:v>macro avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1114,48 +1030,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$36:$E$37</c:f>
+              <c:f>Tabelle1!$A$38:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>micro avg</c:v>
+                  <c:v>balaced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>macro avg</c:v>
+                  <c:v>reduced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>weighted avg</c:v>
+                  <c:v>balanced_NB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>samples avg</c:v>
+                  <c:v>reduced_NB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>balaced_tf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>reduced_tf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$39:$E$39</c:f>
+              <c:f>Tabelle1!$C$38:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.26744276896632502</c:v>
+                  <c:v>0.14168905675822399</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.102238278030722</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26744276896632502</c:v>
+                  <c:v>0.639098422438653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31068198314588202</c:v>
+                  <c:v>0.35012318035787898</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.45660038712636902</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.23244724074251699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6F7-4EB9-ABD7-FD81A2D4B69A}"/>
+              <c16:uniqueId val="{00000001-ED2E-49E3-AE51-55148EC3DD03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1164,11 +1092,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$40</c:f>
+              <c:f>Tabelle1!$D$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>balanced_NB</c:v>
+                  <c:v>weighted avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1186,48 +1114,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$36:$E$37</c:f>
+              <c:f>Tabelle1!$A$38:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>micro avg</c:v>
+                  <c:v>balaced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>macro avg</c:v>
+                  <c:v>reduced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>weighted avg</c:v>
+                  <c:v>balanced_NB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>samples avg</c:v>
+                  <c:v>reduced_NB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>balaced_tf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>reduced_tf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$40:$E$40</c:f>
+              <c:f>Tabelle1!$D$38:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.69415827675017505</c:v>
+                  <c:v>0.26100444860688299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.639098422438653</c:v>
+                  <c:v>0.26744276896632502</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.69415827675017505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65462978075186296</c:v>
+                  <c:v>0.59996874755840301</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.54764692109576196</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.42874443315883998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B6F7-4EB9-ABD7-FD81A2D4B69A}"/>
+              <c16:uniqueId val="{00000002-ED2E-49E3-AE51-55148EC3DD03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1236,11 +1176,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$41</c:f>
+              <c:f>Tabelle1!$E$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reduced_NB</c:v>
+                  <c:v>samples avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1258,192 +1198,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$B$36:$E$37</c:f>
+              <c:f>Tabelle1!$A$38:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>micro avg</c:v>
+                  <c:v>balaced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>macro avg</c:v>
+                  <c:v>reduced_log_reg</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>weighted avg</c:v>
+                  <c:v>balanced_NB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>samples avg</c:v>
+                  <c:v>reduced_NB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>balaced_tf</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>reduced_tf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$41:$E$41</c:f>
+              <c:f>Tabelle1!$E$38:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.59996874755840301</c:v>
+                  <c:v>0.26183956962361599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35012318035787898</c:v>
+                  <c:v>0.31068198314588202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59996874755840301</c:v>
+                  <c:v>0.65462978075186296</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.63729577883007404</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.54039983982276796</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.47625990435557197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B6F7-4EB9-ABD7-FD81A2D4B69A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>balaced_tf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$B$36:$E$37</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>micro avg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>macro avg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>weighted avg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>samples avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$B$42:$E$42</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B6F7-4EB9-ABD7-FD81A2D4B69A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$A$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>reduced_tf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle1!$B$36:$E$37</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>micro avg</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>macro avg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>weighted avg</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>samples avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$B$43:$E$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B6F7-4EB9-ABD7-FD81A2D4B69A}"/>
+              <c16:uniqueId val="{00000003-ED2E-49E3-AE51-55148EC3DD03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1457,12 +1265,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1883613408"/>
-        <c:axId val="360617744"/>
+        <c:axId val="184477040"/>
+        <c:axId val="263212512"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1883613408"/>
+        <c:axId val="184477040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1307,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360617744"/>
+        <c:crossAx val="263212512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="360617744"/>
+        <c:axId val="263212512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1366,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1883613408"/>
+        <c:crossAx val="184477040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1680,7 +1488,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-AT"/>
-              <a:t>F1-Score</a:t>
+              <a:t>Precision</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1765,7 +1573,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$53</c:f>
+              <c:f>Tabelle1!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1787,7 +1595,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$54:$A$59</c:f>
+              <c:f>Tabelle1!$A$23:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1813,34 +1621,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$54:$B$59</c:f>
+              <c:f>Tabelle1!$B$23:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.393487469114013</c:v>
+                  <c:v>0.79910394265232898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38936442485425798</c:v>
+                  <c:v>0.71558482282847202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45197804710724898</c:v>
+                  <c:v>0.33507572332730501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.257704021276774</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.16409346852862899</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.74360197106978199</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.68838988897948905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1421-4BE3-9DE5-6653759CC116}"/>
+              <c16:uniqueId val="{00000000-07F8-427A-8DD4-6CD53C3D69DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1849,7 +1657,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$53</c:f>
+              <c:f>Tabelle1!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1871,7 +1679,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$54:$A$59</c:f>
+              <c:f>Tabelle1!$A$23:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1897,34 +1705,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$54:$C$59</c:f>
+              <c:f>Tabelle1!$C$23:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.212804148195917</c:v>
+                  <c:v>0.74498784300353005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14867598170065399</c:v>
+                  <c:v>0.46623442422217198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43001497896617202</c:v>
+                  <c:v>0.334693202380699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14421012732000199</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.5904254834224295E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.72876848566076202</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.44275143681081902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1421-4BE3-9DE5-6653759CC116}"/>
+              <c16:uniqueId val="{00000001-07F8-427A-8DD4-6CD53C3D69DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1933,7 +1741,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$53</c:f>
+              <c:f>Tabelle1!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1955,7 +1763,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$54:$A$59</c:f>
+              <c:f>Tabelle1!$A$23:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1981,34 +1789,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$54:$D$59</c:f>
+              <c:f>Tabelle1!$D$23:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.34157181111608698</c:v>
+                  <c:v>0.775315429952251</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34050192481095098</c:v>
+                  <c:v>0.63720112496304304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46798473398559698</c:v>
+                  <c:v>0.36678592037674201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33341196986187799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.25091001725317202</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.73082217943372296</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.61040841989987604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1421-4BE3-9DE5-6653759CC116}"/>
+              <c16:uniqueId val="{00000002-07F8-427A-8DD4-6CD53C3D69DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2017,7 +1825,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$53</c:f>
+              <c:f>Tabelle1!$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2039,7 +1847,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$54:$A$59</c:f>
+              <c:f>Tabelle1!$A$23:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2065,34 +1873,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$54:$E$59</c:f>
+              <c:f>Tabelle1!$E$23:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.34669272244517702</c:v>
+                  <c:v>0.64552021885953603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36099806464427397</c:v>
+                  <c:v>0.55164259927797799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45915527803859102</c:v>
+                  <c:v>0.41364326224620801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29040890809071701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.22817826275267999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.73097853743532104</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.67892728210417697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1421-4BE3-9DE5-6653759CC116}"/>
+              <c16:uniqueId val="{00000003-07F8-427A-8DD4-6CD53C3D69DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2106,12 +1914,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="558399648"/>
-        <c:axId val="550950224"/>
+        <c:axId val="235720848"/>
+        <c:axId val="139840144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="558399648"/>
+        <c:axId val="235720848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,7 +1956,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550950224"/>
+        <c:crossAx val="139840144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2156,7 +1964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="550950224"/>
+        <c:axId val="139840144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2015,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558399648"/>
+        <c:crossAx val="235720848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3900,78 +3708,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>879475</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>282575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B1113F-7F66-4252-CB87-DB4F9D0A8208}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>892175</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDCE52E9-B7DA-5E13-00C5-46826F6E7B30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3175</xdr:colOff>
       <xdr:row>48</xdr:row>
@@ -4000,6 +3736,78 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9596B264-350B-4C31-8C3D-86D00CA3E363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB787A7-ED10-43A8-E219-F2DEB3F7B0F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
@@ -4007,6 +3815,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4286,15 +4098,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
     <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.90625" customWidth="1"/>
@@ -4731,34 +4543,34 @@
       <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
+      <c r="B27">
+        <v>0.74360197106978199</v>
+      </c>
+      <c r="C27">
+        <v>0.72876848566076202</v>
+      </c>
+      <c r="D27">
+        <v>0.73082217943372296</v>
+      </c>
+      <c r="E27">
+        <v>0.73097853743532104</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
+      <c r="B28">
+        <v>0.68838988897948905</v>
+      </c>
+      <c r="C28">
+        <v>0.44275143681081902</v>
+      </c>
+      <c r="D28">
+        <v>0.61040841989987604</v>
+      </c>
+      <c r="E28">
+        <v>0.67892728210417697</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -4855,34 +4667,34 @@
       <c r="A42" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="3">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="B42">
+        <v>0.54764692109576196</v>
+      </c>
+      <c r="C42">
+        <v>0.45660038712636902</v>
+      </c>
+      <c r="D42">
+        <v>0.54764692109576196</v>
+      </c>
+      <c r="E42">
+        <v>0.54039983982276796</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="B43">
+        <v>0.42874443315883998</v>
+      </c>
+      <c r="C43">
+        <v>0.23244724074251699</v>
+      </c>
+      <c r="D43">
+        <v>0.42874443315883998</v>
+      </c>
+      <c r="E43">
+        <v>0.47625990435557197</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -4976,34 +4788,102 @@
       <c r="A58" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="3">
-        <v>0</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="B58">
+        <v>0.63075574732016404</v>
+      </c>
+      <c r="C58">
+        <v>0.53239532141676704</v>
+      </c>
+      <c r="D58">
+        <v>0.60382443890448401</v>
+      </c>
+      <c r="E58">
+        <v>0.58775677642222302</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="3">
-        <v>0</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="B59">
+        <v>0.52839363520377403</v>
+      </c>
+      <c r="C59">
+        <v>0.27874245493841798</v>
+      </c>
+      <c r="D59">
+        <v>0.48340194145716697</v>
+      </c>
+      <c r="E59">
+        <v>0.51337311238033201</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>0.68838988897948905</v>
+      </c>
+      <c r="D69">
+        <v>0.42874443315883998</v>
+      </c>
+      <c r="E69">
+        <v>0.52839363520377403</v>
+      </c>
+      <c r="F69">
+        <v>25598</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>0.44275143681081902</v>
+      </c>
+      <c r="D70">
+        <v>0.23244724074251699</v>
+      </c>
+      <c r="E70">
+        <v>0.27874245493841798</v>
+      </c>
+      <c r="F70">
+        <v>25598</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>0.61040841989987604</v>
+      </c>
+      <c r="D71">
+        <v>0.42874443315883998</v>
+      </c>
+      <c r="E71">
+        <v>0.48340194145716697</v>
+      </c>
+      <c r="F71">
+        <v>25598</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>0.67892728210417697</v>
+      </c>
+      <c r="D72">
+        <v>0.47625990435557197</v>
+      </c>
+      <c r="E72">
+        <v>0.51337311238033201</v>
+      </c>
+      <c r="F72">
+        <v>25598</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Metrics/Vergleich_metriken_all.xlsx
+++ b/Results/Metrics/Vergleich_metriken_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e6b024c9cb94357/Dokumente/GitHub/NLP_Project/Results/Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_AD4DB114E441178AC67DF4F78ED6FF46693EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B84EA21E-45A3-4521-8E4A-50DB80BCE380}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="11_AD4DB114E441178AC67DF4F78ED6FF46693EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32A25CDF-2044-4B66-9EA9-37BDA746D18A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15990" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
   <si>
     <t>balaced_log_reg</t>
   </si>
@@ -4098,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="V46" sqref="V46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4818,74 +4818,6 @@
         <v>0.51337311238033201</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>0.68838988897948905</v>
-      </c>
-      <c r="D69">
-        <v>0.42874443315883998</v>
-      </c>
-      <c r="E69">
-        <v>0.52839363520377403</v>
-      </c>
-      <c r="F69">
-        <v>25598</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70">
-        <v>0.44275143681081902</v>
-      </c>
-      <c r="D70">
-        <v>0.23244724074251699</v>
-      </c>
-      <c r="E70">
-        <v>0.27874245493841798</v>
-      </c>
-      <c r="F70">
-        <v>25598</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>0.61040841989987604</v>
-      </c>
-      <c r="D71">
-        <v>0.42874443315883998</v>
-      </c>
-      <c r="E71">
-        <v>0.48340194145716697</v>
-      </c>
-      <c r="F71">
-        <v>25598</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72">
-        <v>0.67892728210417697</v>
-      </c>
-      <c r="D72">
-        <v>0.47625990435557197</v>
-      </c>
-      <c r="E72">
-        <v>0.51337311238033201</v>
-      </c>
-      <c r="F72">
-        <v>25598</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
